--- a/list_of_article.xlsx
+++ b/list_of_article.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
   <si>
     <t>NO</t>
   </si>
@@ -304,6 +304,54 @@
   </si>
   <si>
     <t>KevinZhan</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已投稿</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已校对</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF24292E"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈雁飞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF24292E"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李冉</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已校对</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -717,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="A12:F14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1032,8 +1080,8 @@
       <c r="G12" s="4">
         <v>43570</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>22</v>
+      <c r="H12" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1084,8 +1132,8 @@
       <c r="G14" s="4">
         <v>43570</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>22</v>
+      <c r="H14" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1277,8 +1325,8 @@
       <c r="B22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>14</v>
+      <c r="C22" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>50</v>
@@ -1286,14 +1334,14 @@
       <c r="E22" s="4">
         <v>43589</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>50</v>
+      <c r="F22" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="G22" s="4">
         <v>43632</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>22</v>
+      <c r="H22" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
